--- a/Data/EC/NIT-9006817920.xlsx
+++ b/Data/EC/NIT-9006817920.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECAB201-E46E-415D-8891-7D493FE197E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{135D058B-DA27-4046-9CC3-C798687292AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{607AB49A-C7FB-4F29-AC3B-D0AE10596E19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A3C5F69-504B-4BD9-A86F-6863A3F8B5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,25 +65,82 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73131545</t>
+  </si>
+  <si>
+    <t>LUIS E ROMERO CABARCAS</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>1101441905</t>
   </si>
   <si>
     <t>ARNALDO ANDRES BUELVAS MERCADO</t>
   </si>
   <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1909</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>73131545</t>
-  </si>
-  <si>
-    <t>LUIS E ROMERO CABARCAS</t>
-  </si>
-  <si>
-    <t>1911</t>
+    <t>9091426</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO TORRES CABARCAS</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1072522889</t>
+  </si>
+  <si>
+    <t>ADRIANA PAOLA PINEDO BELTRAN</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1143325816</t>
+  </si>
+  <si>
+    <t>FABIO ENRIQUE PRASCA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t>92641989</t>
@@ -95,67 +152,10 @@
     <t>2001</t>
   </si>
   <si>
-    <t>1143325816</t>
-  </si>
-  <si>
-    <t>FABIO ENRIQUE PRASCA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>9091426</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO TORRES CABARCAS</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
     <t>1050969832</t>
   </si>
   <si>
     <t>YEAN DAVID PABON RIVERA</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1072522889</t>
-  </si>
-  <si>
-    <t>ADRIANA PAOLA PINEDO BELTRAN</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90036EC9-46C5-9740-8178-FDD3B7AC6124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A9A696-A529-7AAE-77C4-869AF2FB76E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340ABEFE-9F4C-4554-9354-13C395C6BD15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32880DB4-824B-4715-BC76-B99C381020E4}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1112,13 +1112,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1135,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1158,10 +1158,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>15</v>
@@ -1190,10 +1190,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>87061</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>2968000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1204,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F21" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>2968000</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>2968000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1250,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="18">
-        <v>2968000</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,19 +1273,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>2968000</v>
+        <v>1200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1296,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>118720</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>2968000</v>
+        <v>2200000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1342,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>118720</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>2968000</v>
+        <v>2200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>2200000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1388,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F29" s="18">
         <v>118720</v>
@@ -1411,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>118720</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>2968000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1434,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>36341</v>
+        <v>118720</v>
       </c>
       <c r="G31" s="18">
-        <v>3260870</v>
+        <v>2968000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>118720</v>
       </c>
       <c r="G32" s="18">
-        <v>3260870</v>
+        <v>2968000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1480,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>118720</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>2968000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1503,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>118720</v>
@@ -1526,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
-        <v>60000</v>
+        <v>118720</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>2968000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1549,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>118720</v>
@@ -1572,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>118720</v>
       </c>
       <c r="G37" s="18">
-        <v>3260870</v>
+        <v>2968000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1595,10 +1595,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>34</v>
@@ -1618,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
-        <v>60000</v>
+        <v>87061</v>
       </c>
       <c r="G39" s="18">
-        <v>1500000</v>
+        <v>2968000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1641,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1664,19 +1664,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>3260870</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1687,19 +1687,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>3260870</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1710,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F43" s="24">
         <v>36341</v>
       </c>
       <c r="G43" s="24">
-        <v>908526</v>
+        <v>3260870</v>
       </c>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>

--- a/Data/EC/NIT-9006817920.xlsx
+++ b/Data/EC/NIT-9006817920.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{135D058B-DA27-4046-9CC3-C798687292AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF09A444-B380-45C9-8D94-5A3360D236F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A3C5F69-504B-4BD9-A86F-6863A3F8B5BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{76D4D199-CD03-4FEB-B2A2-1BFEE8C97D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,18 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1101441905</t>
+  </si>
+  <si>
+    <t>ARNALDO ANDRES BUELVAS MERCADO</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>73131545</t>
   </si>
   <si>
@@ -74,16 +86,31 @@
     <t>1911</t>
   </si>
   <si>
-    <t>1101441905</t>
-  </si>
-  <si>
-    <t>ARNALDO ANDRES BUELVAS MERCADO</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
+    <t>92641989</t>
+  </si>
+  <si>
+    <t>JOSE GABRIEL ESPITIA SIERRA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1143325816</t>
+  </si>
+  <si>
+    <t>FABIO ENRIQUE PRASCA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
   <si>
     <t>9091426</t>
@@ -92,70 +119,43 @@
     <t>LUIS ALBERTO TORRES CABARCAS</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>1050969832</t>
+  </si>
+  <si>
+    <t>YEAN DAVID PABON RIVERA</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>1072522889</t>
   </si>
   <si>
     <t>ADRIANA PAOLA PINEDO BELTRAN</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1143325816</t>
-  </si>
-  <si>
-    <t>FABIO ENRIQUE PRASCA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>92641989</t>
-  </si>
-  <si>
-    <t>JOSE GABRIEL ESPITIA SIERRA</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1050969832</t>
-  </si>
-  <si>
-    <t>YEAN DAVID PABON RIVERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -254,7 +254,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,23 +469,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,10 +513,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A9A696-A529-7AAE-77C4-869AF2FB76E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2751CFB-E301-C082-141A-19F83C5A44A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32880DB4-824B-4715-BC76-B99C381020E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BDA02C-357D-48E0-BA67-421417544169}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1112,13 +1112,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1135,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1158,10 +1158,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>15</v>
@@ -1190,10 +1190,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>60000</v>
+        <v>87061</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>2968000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1204,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>118720</v>
       </c>
       <c r="G21" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>118720</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1250,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>118720</v>
       </c>
       <c r="G23" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,19 +1273,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>118720</v>
       </c>
       <c r="G24" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1296,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>118720</v>
       </c>
       <c r="G26" s="18">
-        <v>2200000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1342,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G27" s="18">
-        <v>2200000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>118720</v>
       </c>
       <c r="G28" s="18">
-        <v>2200000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1388,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F29" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="18">
-        <v>2968000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F30" s="18">
         <v>118720</v>
       </c>
       <c r="G30" s="18">
-        <v>2968000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1434,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F31" s="18">
-        <v>118720</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>2968000</v>
+        <v>3260870</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="18">
-        <v>2968000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1480,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>118720</v>
       </c>
       <c r="G33" s="18">
-        <v>2968000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1503,19 +1503,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>118720</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>2968000</v>
+        <v>3260870</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1526,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="18">
-        <v>2968000</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1549,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>118720</v>
       </c>
       <c r="G36" s="18">
-        <v>2968000</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1572,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>118720</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>2968000</v>
+        <v>3260870</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1595,19 +1595,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="18">
-        <v>118720</v>
+        <v>60000</v>
       </c>
       <c r="G38" s="18">
-        <v>2968000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1618,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>87061</v>
+        <v>118720</v>
       </c>
       <c r="G39" s="18">
-        <v>2968000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1641,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1664,19 +1664,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>3260870</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1687,19 +1687,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>3260870</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1710,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>21</v>
       </c>
       <c r="F43" s="24">
         <v>36341</v>
       </c>
       <c r="G43" s="24">
-        <v>3260870</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
